--- a/outputs/raw/RFQ_Analysis_by_Sales.xlsx
+++ b/outputs/raw/RFQ_Analysis_by_Sales.xlsx
@@ -1523,7 +1523,7 @@
         <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>178561.62</v>
+        <v>89280.81</v>
       </c>
       <c r="L25" t="n">
         <v>5</v>
@@ -1652,7 +1652,7 @@
         <v>0.667</v>
       </c>
       <c r="K28" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="L28" t="n">
         <v>5</v>

--- a/outputs/raw/RFQ_Analysis_by_Sales.xlsx
+++ b/outputs/raw/RFQ_Analysis_by_Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,34 +510,34 @@
         <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>465881.64</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -553,34 +553,34 @@
         <v>2021</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>720893.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -596,34 +596,34 @@
         <v>2022</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>863376.29</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -639,34 +639,34 @@
         <v>2023</v>
       </c>
       <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.333</v>
+        <v>0.636</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>538819.3100000001</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -682,34 +682,34 @@
         <v>2024</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.727</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>495782.44</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>2025</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>448316.08</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -768,16 +768,16 @@
         <v>2020</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>337918.09</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -811,34 +811,34 @@
         <v>2021</v>
       </c>
       <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>83424.44</v>
+        <v>304596.97</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -854,34 +854,34 @@
         <v>2022</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.769</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>762412.72</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -897,34 +897,34 @@
         <v>2023</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>165132.28</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -933,41 +933,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>296265.19</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -976,38 +976,38 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>225198.26</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -1023,37 +1023,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>144511.32</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1066,37 +1066,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>193963.6</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -1121,22 +1121,22 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>154482.37</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1173,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.714</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>327934.64</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1191,17 +1191,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>James Aaron</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>299951.63</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1234,38 +1234,38 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>James Aaron</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>85338.3</v>
+        <v>111845.82</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1281,13 +1281,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>171256.48</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1320,17 +1320,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0.143</v>
+        <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>243894.36</v>
+        <v>106191.51</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1363,41 +1363,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C22" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
         <v>8</v>
       </c>
-      <c r="D22" t="n">
-        <v>8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
       <c r="J22" t="n">
-        <v>0.25</v>
+        <v>0.727</v>
       </c>
       <c r="K22" t="n">
-        <v>57215.62</v>
+        <v>542152.73</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1406,41 +1406,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>272880.72</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1449,11 +1449,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C24" t="n">
         <v>8</v>
@@ -1465,25 +1465,25 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>0.429</v>
+        <v>0.714</v>
       </c>
       <c r="K24" t="n">
-        <v>215528.84</v>
+        <v>393543.66</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1492,41 +1492,41 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="K25" t="n">
-        <v>89280.81</v>
+        <v>166369.06</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1560,59 +1560,59 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>48863.5</v>
+        <v>133946.54</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>122844.24</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1621,26 +1621,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1649,13 +1649,13 @@
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="K28" t="n">
-        <v>301003.12</v>
+        <v>239237.26</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -1664,41 +1664,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>219942.27</v>
+        <v>455242.18</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1707,23 +1707,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322701.68</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -1750,17 +1750,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1769,22 +1769,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -1797,77 +1797,77 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>245377.88</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>0.25</v>
+        <v>0.727</v>
       </c>
       <c r="K33" t="n">
-        <v>181882.07</v>
+        <v>513165.68</v>
       </c>
       <c r="L33" t="n">
         <v>2</v>
@@ -1879,41 +1879,41 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>68712.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -1922,38 +1922,38 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>287514.28</v>
       </c>
       <c r="L35" t="n">
         <v>2</v>
@@ -1965,17 +1965,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1990,16 +1990,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>215670.41</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2008,23 +2008,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2033,16 +2033,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>149568.47</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2055,39 +2055,211 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.778</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>499152.08</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C39" t="n">
+        <v>13</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>469486.55</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>307075.45</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K41" t="n">
+        <v>381831.55</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17</v>
+      </c>
+      <c r="D42" t="n">
+        <v>16</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>594112.28</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" t="n">
         <v>0</v>
       </c>
     </row>
